--- a/Data_frame/balancos_definitivos/IENG3.xlsx
+++ b/Data_frame/balancos_definitivos/IENG3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,186 +649,6 @@
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2011</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2012</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2012</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2012</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2013</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2013</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2013</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2014</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2014</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2014</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2016</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2016</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2017</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2017</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2017</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2019</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2019</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2019</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -962,114 +782,6 @@
       <c r="AQ2" t="n">
         <v>469880.992</v>
       </c>
-      <c r="AR2" t="n">
-        <v>4279494.912</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>4582595.072</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>4958996.992</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>4330629.12</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>4022788.096</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4253832.96</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>4155081.984</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>4154160.128</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>4667591.168</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>4840595.968</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>4982240.768</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>5270998.016</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>5410038.784</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>5080934.912</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>4353062.912</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>3658470.912</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>3592283.904</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>3635184.896</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>3484920.064</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>3709914.112</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>3997999.104</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>3776347.904</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>3382502.912</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>2997714.944</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>2518398.976</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>2556399.104</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2421328.896</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>2598977.024</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>2491785.984</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>2249253.12</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>2404666.88</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>2356296.96</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>2870587.904</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>2910113.024</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>3462652.928</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>3958192.128</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1203,114 +915,6 @@
       <c r="AQ3" t="n">
         <v>245563.008</v>
       </c>
-      <c r="AR3" t="n">
-        <v>3192646.912</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3776312.064</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>4071723.008</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3392864</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3046295.04</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3273459.968</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3074092.032</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>3095355.904</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>3479268.096</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>3640357.12</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3842373.888</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>4178539.008</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>4276413.952</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>4005300.992</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>3332595.968</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2608829.952</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>2656280.064</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>2705265.92</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>2314724.096</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2581491.968</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3115644.928</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>2633732.096</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>2146482.944</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1753515.008</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>1303963.008</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1385182.976</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1295038.976</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1524850.944</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>1432871.04</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1211219.968</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>1419464.96</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>1253506.944</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>1722020.992</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>1816976</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>1844219.008</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>2259554.048</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1444,114 +1048,6 @@
       <c r="AQ4" t="n">
         <v>1769</v>
       </c>
-      <c r="AR4" t="n">
-        <v>45451</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>25211</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>25751</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>5912</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>18245</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>64514</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26545</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>36652</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>36730</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>36216</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>8074</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>37668</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>40245</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>103834</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>47265</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>53523</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>76857</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>31149</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>26688</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>53659</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>35533</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>41147</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>42020</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>65391</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>8557</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>18150</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>17603</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>15022</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>6455</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>4438</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>2602</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>29997</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>20415</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>40062</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>29878</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>43953</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1685,114 +1181,6 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR5" t="n">
-        <v>305832.992</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>617065.9840000001</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>606824</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>941950.976</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>429535.008</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>546758.976</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>283120</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>143122</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>201460.992</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>173184</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>141672</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>17521</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>570177.024</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>404905.984</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>641552</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>467081.984</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>473151.008</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>699523.008</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>537028.992</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>726331.008</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>948779.008</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>995473.9840000001</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>734107.008</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>663161.024</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>328671.008</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>506127.008</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>475331.008</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>753598.976</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>770529.024</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>536236</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>667440</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>453127.008</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>500206.016</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>43499</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>489996</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>341702.016</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1926,114 +1314,6 @@
       <c r="AQ6" t="n">
         <v>39940</v>
       </c>
-      <c r="AR6" t="n">
-        <v>1093209.984</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1264289.024</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1459079.936</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>544782.976</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>647092.992</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>696907.008</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>979270.976</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1221518.976</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1245843.968</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>1297997.952</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>1478355.968</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>1812301.056</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>1271906.944</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>1200833.024</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>927948.992</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>715790.0159999999</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>913705.024</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>919464</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>933516.992</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>1017094.016</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1097810.944</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>931729.024</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>763537.9840000001</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>697358.976</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>647283.008</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>530316.992</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>520500.992</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>457886.016</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>489638.016</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>528294.0159999999</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>599352</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>651440</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>1021166.016</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1494635.008</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>974353.024</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1443763.968</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2167,114 +1447,6 @@
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
-      <c r="AR7" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>3337</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3195</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>2680</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>938</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>11996</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>3201</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>2545</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>3287</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>2750</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>7886</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>6211</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>2155</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>2414</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>4659</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>2126</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>1193</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1203</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>1694</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>1989</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>721</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>820</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>343</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>870</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>541</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>673</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>718</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>103</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>367</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>410</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>397</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>537</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>359</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>413</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>57963</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>119628</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2408,114 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2649,114 +1713,6 @@
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" t="n">
-        <v>1234819.968</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1294343.04</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1263526.016</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1366002.048</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1495533.056</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1354555.008</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1359620.992</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>1269980.032</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1554802.944</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1459005.952</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1540654.976</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>1519565.952</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>1560103.04</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>1548461.952</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>1193072</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>924755.968</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>808153.9840000001</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>692057.9840000001</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>647841.024</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>647958.0159999999</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>672588.992</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>539142.976</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>481576.992</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>232160</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>226738</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>221044.992</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>166066</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>197000.992</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>82768</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>47496</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>59118</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>77233</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>107241</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>118490</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>139878</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>119357</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2890,114 +1846,6 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3131,114 +1979,6 @@
       <c r="AQ11" t="n">
         <v>203854</v>
       </c>
-      <c r="AR11" t="n">
-        <v>449368</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>521447.008</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>675457.9840000001</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>486676</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>398136.992</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>545334.976</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>359940</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>357673.984</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>357008</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>578849.9840000001</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>529699.008</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>653971.968</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>691889.024</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>598118.976</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>359719.008</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>280727.008</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>221879.008</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>199388</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>166675.008</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>133186</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>137422</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>124000</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>123857</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>94095</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>92059</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>108385</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>113884</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>100649</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>82671</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>93782</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>90206</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>40399</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>69211</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>118169</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>150343.008</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>184262</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3372,114 +2112,6 @@
       <c r="AQ12" t="n">
         <v>211283.008</v>
       </c>
-      <c r="AR12" t="n">
-        <v>62365</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>50619</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>37889</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>44860</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>56814</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>53394</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>62394</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>63864</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>80135</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>92353</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>136032</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>131300</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>139938</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>146732.992</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>158380</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>164826</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>161340.992</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>162480.992</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>1280</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>1275</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>222790</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>1419</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>1041</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>479</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>114</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>486</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>936</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>591</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>443</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>564</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>350</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>774</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>3423</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>1708</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>1808</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>6888</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3613,114 +2245,6 @@
       <c r="AQ13" t="n">
         <v>65109</v>
       </c>
-      <c r="AR13" t="n">
-        <v>996540.032</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>716025.024</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>797392</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>848451.008</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>902483.008</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>902657.024</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>980897.9840000001</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>946665.024</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>965342.0159999999</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>966886.976</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>907544</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>869321.9840000001</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>902558.976</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>841390.976</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>800153.9840000001</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>821825.024</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>711926.0159999999</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>706542.0159999999</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>950904</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>910536</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>663203.968</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>926550.0159999999</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>1017216</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>1035310.016</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>990641.024</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>948747.008</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>902217.024</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>844534.0159999999</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>874782.0159999999</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>863171.008</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>813265.024</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>927835.008</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>980747.008</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>927620.992</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>1499191.04</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>1564551.936</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3854,114 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6824</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>95424</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>192563.008</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>224748</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>226414</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4095,114 +2511,6 @@
       <c r="AQ15" t="n">
         <v>3428</v>
       </c>
-      <c r="AR15" t="n">
-        <v>331820</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>27866</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>52949</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>44585</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>59695</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51121</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>45145</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>42494</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>32679</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>33032</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>27444</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>28998</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>32847</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>44000</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>110778</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>61935</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>50743</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>46290</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>56315</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>53239</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>6149</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>6162</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>40452</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>34348</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>34475</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>35561</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>36666</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>34398</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>33010</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>33400</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>32802</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>32305</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>32130</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>1596</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>556819.008</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>561956.992</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4336,114 +2644,6 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="n">
-        <v>5564</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>4784</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4347</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4202</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4083</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>3001</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>3066</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>2966</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>3038</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>2639</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2714</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2892</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>2990</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>3087</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>3191</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>3302</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>2428</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>3096</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>3182</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>2623</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>2669</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>2712</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>2754</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>3188</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>2841</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>2884</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>2928</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>2594</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>2626</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>2652</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2212</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>2224</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4577,114 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4818,114 +2910,6 @@
       <c r="AQ18" t="n">
         <v>38016</v>
       </c>
-      <c r="AR18" t="n">
-        <v>533948.992</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>556305.9840000001</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>596483.008</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>651963.008</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>693561.024</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>625129.024</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>655164.032</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>630238.976</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>685212.992</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>682601.024</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>631896</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>599507.008</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>616126.976</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>524788.992</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>359815.008</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>336801.984</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>271227.008</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>269086.016</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>273227.008</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>178851.008</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>193923.008</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>236594</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>228487.008</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>258224</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>215427.008</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>160184.992</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>130200</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>57211</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>39951</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>28904</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>15401</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>28866</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>37040</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>52003</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>48079</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>47281</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5059,114 +3043,6 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5300,114 +3176,6 @@
       <c r="AQ20" t="n">
         <v>86238</v>
       </c>
-      <c r="AR20" t="n">
-        <v>124984</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>126877</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>143452.992</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>140747.008</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>144760.992</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>194844</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>246966</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>243435.008</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>244332</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>248216</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>248204</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>240816.992</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>250716</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>269884.992</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>329560.992</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>420196</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>386899.008</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>388022.016</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>422287.008</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>456248</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>460692</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>454451.008</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>537025.9840000001</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>506056.992</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>502188.992</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>512369.984</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>504609.984</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>533404</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>588028.992</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>589217.024</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>568662.0159999999</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>675884.032</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>626057.9840000001</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>485656.992</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>407524.992</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>472873.984</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5541,114 +3309,6 @@
       <c r="AQ21" t="n">
         <v>18492</v>
       </c>
-      <c r="AR21" t="n">
-        <v>223</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>192</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>383</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>31563</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>30622</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>27431</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>152</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>230</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>57</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>195884</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>218896</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>12</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>226247.008</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>208068.992</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>234058</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>235880.992</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>237919.008</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>227987.008</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>216332.992</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>210951.008</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>208766</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>193472</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>188186</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>187468.992</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>193150</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>259808</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>253802</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5782,114 +3442,6 @@
       <c r="AQ22" t="n">
         <v>2515</v>
       </c>
-      <c r="AR22" t="n">
-        <v>90308</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>90258</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>89882</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>89314</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>74010</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>77716</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>100092</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>112139</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>222980.992</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>233352</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>232323.008</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>223136.992</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>231066</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>234243.008</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>220312.992</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>227816</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>224078</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>223376.992</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>219292</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>217886</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>219150</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>216066</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>218804</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>208890</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>223795.008</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>222468.992</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>224072.992</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>229592</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>184132.992</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>174862</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>171936.992</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>174955.008</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>167820</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>165516</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>119243</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>134086</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6023,114 +3575,6 @@
       <c r="AQ23" t="n">
         <v>3</v>
       </c>
-      <c r="AR23" t="n">
-        <v>66334</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>65873</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>65692</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>64781</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>50488</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>54111</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>76889</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>89686</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>201204.992</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>212660.992</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>212672.992</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>206680.992</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>215303.008</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>219190</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>206178</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>214588</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>211810</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>211888.992</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>208463.008</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>207788.992</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>209794</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>207427.008</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>210452</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>201156.992</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>216720.992</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>216094</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>217112</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>223294</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>178428.992</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>169740</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>167440.992</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>167896</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>160428</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>158700</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>112994</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>128283</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6264,114 +3708,6 @@
       <c r="AQ24" t="n">
         <v>10517</v>
       </c>
-      <c r="AR24" t="n">
-        <v>11857</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12595</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>12728</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>13398</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>12715</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>13125</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>13051</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>12628</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>12279</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>11521</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>10808</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>7941</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>7576</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>7193</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>6603</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>6023</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>5391</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>4938</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>4607</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>4202</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>3789</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>3399</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>3440</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>3148</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>2817</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>2445</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>2275</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>1996</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>1787</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>1590</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>1348</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>4295</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>5013</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>4821</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>4639</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>4577</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6505,114 +3841,6 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6746,114 +3974,6 @@
       <c r="AQ26" t="n">
         <v>469880.992</v>
       </c>
-      <c r="AR26" t="n">
-        <v>12117</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>11790</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>11462</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>11135</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>10807</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>10480</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>10152</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>9825</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>9497</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>9170</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>8842</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>8515</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>8187</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>7860</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>7532</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>7205</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>6877</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>6550</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>6222</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>5895</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>5567</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>5240</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>4912</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>4585</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>4257</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>3930</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>4686</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>4302</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>3917</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>3532</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>3148</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>2764</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>2379</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>1995</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>1610</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>1226</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6987,114 +4107,6 @@
       <c r="AQ27" t="n">
         <v>289742.016</v>
       </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7228,114 +4240,6 @@
       <c r="AQ28" t="n">
         <v>7</v>
       </c>
-      <c r="AR28" t="n">
-        <v>4279494.912</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>4582595.072</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>4958996.992</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>4330629.12</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>4022788.096</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>4253832.96</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4155081.984</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>4154160.128</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>4667591.168</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>4840595.968</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>4982240.768</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>5270998.016</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>5410038.784</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>5080934.912</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>4353062.912</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>3658470.912</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>3592283.904</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>3635184.896</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>3484920.064</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>3709914.112</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>3997999.104</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>3776347.904</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>3382502.912</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>2997714.944</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>2518398.976</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>2556399.104</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>2421328.896</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>2598977.024</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>2491785.984</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>2249253.12</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>2404666.88</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>2356296.96</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>2870587.904</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>2910113.024</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>3462652.928</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>3958192.128</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7469,114 +4373,6 @@
       <c r="AQ29" t="n">
         <v>0</v>
       </c>
-      <c r="AR29" t="n">
-        <v>2654606.08</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>2969682.944</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3363459.072</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>2483718.912</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>2115531.008</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>2497584.128</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>2496431.104</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>2525496.064</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>2824930.048</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>3135984.896</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>3152593.92</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>3583648</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>3839845.12</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>3430291.968</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>2724049.92</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>1959766.016</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>1622126.976</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>1701308.032</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>1784920.96</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>2236972.032</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>2803707.904</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>2509689.088</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>2096791.04</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>1542833.024</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>1151148.032</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>1282574.976</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>1155097.984</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>1208403.968</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>1199153.024</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>1054057.024</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>1085831.04</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>1121810.944</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>1260263.936</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>1198797.056</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>1439276.032</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>1794403.968</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7710,114 +4506,6 @@
       <c r="AQ30" t="n">
         <v>3072</v>
       </c>
-      <c r="AR30" t="n">
-        <v>806508.992</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>992227.968</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>896960</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>815496</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>846265.024</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>930547.008</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>1023057.984</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>967355.008</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1303748.992</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>1327596.032</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>1359785.984</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>1374480</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>1481672.96</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>1348263.936</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>1163277.952</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>814308.992</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>552009.024</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>660238.976</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>856697.024</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>1041139.968</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>1578542.976</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>1496791.04</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>1271110.016</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>922276.992</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>624884.992</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>701105.9840000001</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>617590.976</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>638118.976</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>670336</v>
-      </c>
-      <c r="BU30" t="n">
-        <v>606000</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>608836.992</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>688953.9840000001</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>741030.0159999999</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>722235.008</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>764459.008</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>809182.976</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7951,114 +4639,6 @@
       <c r="AQ31" t="n">
         <v>284462.016</v>
       </c>
-      <c r="AR31" t="n">
-        <v>867896</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1058390.016</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>1219646.976</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>597214.0159999999</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>241904</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>193228</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>176140.992</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>107500</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>85905</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>99101</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>131019</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>342460.992</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>253236.992</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>177204</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>194116</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>129870</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>80705</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>175078</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>140006</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>289539.008</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>241928</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>147114</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>161267.008</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>79246</v>
-      </c>
-      <c r="BP31" t="n">
-        <v>69983</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>179972.992</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>212643.008</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>285518.016</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>243192</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>242971.008</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>272144.992</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>247380</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>202659.008</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>181475.008</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>341764</v>
-      </c>
-      <c r="CA31" t="n">
-        <v>511192.992</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8192,114 +4772,6 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" t="n">
-        <v>218216.992</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>296488</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>331483.008</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>341511.008</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>376324.992</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>497095.008</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>550198.0159999999</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>645620.992</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>825491.008</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>1043569.024</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>1193150.976</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>1437016.064</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>1675430.016</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>1397491.968</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>1061067.008</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>792726.0159999999</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>807124.992</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>774718.0159999999</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>711953.024</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>836915.008</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>923340.992</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>818076.992</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>621024</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>512888.992</v>
-      </c>
-      <c r="BP32" t="n">
-        <v>413783.008</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>369760.992</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>304414.016</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>263280.992</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>263890</v>
-      </c>
-      <c r="BU32" t="n">
-        <v>182163.008</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>191179.008</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>166095.008</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>285207.008</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>251755.008</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>289440.992</v>
-      </c>
-      <c r="CA32" t="n">
-        <v>432041.984</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8433,114 +4905,6 @@
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>327</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>202</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>185</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>180</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>556</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>391</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>533</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>313</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>188</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>211</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>611</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>302</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>349</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>193</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>173</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>398</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>397</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>167</v>
-      </c>
-      <c r="BP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>269</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>270</v>
-      </c>
-      <c r="BS33" t="n">
-        <v>85</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU33" t="n">
-        <v>95</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>445</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>678</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>6973</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>182</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>430</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8674,114 +5038,6 @@
       <c r="AQ34" t="n">
         <v>2180</v>
       </c>
-      <c r="AR34" t="n">
-        <v>24963</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>19724</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>10218</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8312</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>9168</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>15741</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>9892</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>11811</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>8090</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>4083</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>7603</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>2635</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>17598</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>46708</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>12989</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>10724</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>5016</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>4231</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>14218</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>8652</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>9231</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>4018</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>1519</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>2913</v>
-      </c>
-      <c r="BP34" t="n">
-        <v>6095</v>
-      </c>
-      <c r="BQ34" t="n">
-        <v>3213</v>
-      </c>
-      <c r="BR34" t="n">
-        <v>1917</v>
-      </c>
-      <c r="BS34" t="n">
-        <v>10531</v>
-      </c>
-      <c r="BT34" t="n">
-        <v>4912</v>
-      </c>
-      <c r="BU34" t="n">
-        <v>1077</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>1658</v>
-      </c>
-      <c r="BW34" t="n">
-        <v>808</v>
-      </c>
-      <c r="BX34" t="n">
-        <v>911</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>213</v>
-      </c>
-      <c r="BZ34" t="n">
-        <v>4241</v>
-      </c>
-      <c r="CA34" t="n">
-        <v>3938</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8915,114 +5171,6 @@
       <c r="AQ35" t="n">
         <v>21</v>
       </c>
-      <c r="AR35" t="n">
-        <v>417275.008</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>362520.992</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>449156.992</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>431964</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>388625.984</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>396399.008</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>365999.008</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>332192.992</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>307633.984</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>314592</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>248658</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>195804</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>189644</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>195896</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>103534</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>80331</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>49750</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>13528</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9156,114 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>81411</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>95761</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>103582</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>128029</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>119575</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>125570</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>131247</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>122375</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>113199</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>100831</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>94530</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>86647</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>75433</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>87900</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>84103</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>75153</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>65852</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>39010</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>25675</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>21440</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>18260</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>14928</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>11547</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>7808</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>5229</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>3017</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>1770</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>1415</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>1271</v>
-      </c>
-      <c r="BU36" t="n">
-        <v>1211</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>1156</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>1139</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>1133</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>1132</v>
-      </c>
-      <c r="CA36" t="n">
-        <v>1132</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9397,114 +5437,6 @@
       <c r="AQ37" t="n">
         <v>127905</v>
       </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9638,114 +5570,6 @@
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
-      <c r="AR38" t="n">
-        <v>238335.008</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>144244</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>352209.984</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>161008</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>133668</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>338824</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>239340</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>338249.984</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>180862</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>245680</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>117534</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>144416.992</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>146830</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>176616.992</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>104352</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>56351</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>61670</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>34155</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>36179</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>39113</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>32405</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>28363</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>29927</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>17533</v>
-      </c>
-      <c r="BP38" t="n">
-        <v>31173</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>25236</v>
-      </c>
-      <c r="BR38" t="n">
-        <v>16493</v>
-      </c>
-      <c r="BS38" t="n">
-        <v>9455</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>15552</v>
-      </c>
-      <c r="BU38" t="n">
-        <v>20540</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>10411</v>
-      </c>
-      <c r="BW38" t="n">
-        <v>16757</v>
-      </c>
-      <c r="BX38" t="n">
-        <v>29323</v>
-      </c>
-      <c r="BY38" t="n">
-        <v>35013</v>
-      </c>
-      <c r="BZ38" t="n">
-        <v>38057</v>
-      </c>
-      <c r="CA38" t="n">
-        <v>36486</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9879,114 +5703,6 @@
       <c r="AQ39" t="n">
         <v>789</v>
       </c>
-      <c r="AR39" t="n">
-        <v>1046251.008</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1021028.992</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>1012084.992</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>1258360.96</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1319945.984</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>1257649.024</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>1089145.984</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>1052987.008</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>1166878.976</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>1033956.992</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>1154928</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>1011545.024</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>890611.968</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>976278.976</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>1088992</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>1169171.968</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>1377207.04</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>1363323.008</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>1144475.008</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>944148.992</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>694040</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>798403.968</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>873816</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>1117975.04</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>1092279.04</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>1068284.992</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>1114615.04</v>
-      </c>
-      <c r="BS39" t="n">
-        <v>1297746.048</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>1145204.992</v>
-      </c>
-      <c r="BU39" t="n">
-        <v>1085090.944</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>998452.992</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>833531.008</v>
-      </c>
-      <c r="BX39" t="n">
-        <v>1223858.944</v>
-      </c>
-      <c r="BY39" t="n">
-        <v>1420406.016</v>
-      </c>
-      <c r="BZ39" t="n">
-        <v>1770206.976</v>
-      </c>
-      <c r="CA39" t="n">
-        <v>1924445.056</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10120,114 +5836,6 @@
       <c r="AQ40" t="n">
         <v>89100</v>
       </c>
-      <c r="AR40" t="n">
-        <v>853835.008</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>823212.992</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>802579.008</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1021942.976</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1038003.008</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>1002619.008</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>842830.0159999999</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>759561.9840000001</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>894305.024</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>751454.976</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>887361.024</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>772153.9840000001</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>684091.008</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>713852.032</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>846014.976</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>976641.024</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>1209734.016</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>1229158.016</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>948606.976</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>763558.976</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>490399.008</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>621956.992</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>716504</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>958697.024</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>960931.008</v>
-      </c>
-      <c r="BQ40" t="n">
-        <v>933358.0159999999</v>
-      </c>
-      <c r="BR40" t="n">
-        <v>1014803.968</v>
-      </c>
-      <c r="BS40" t="n">
-        <v>1208196.992</v>
-      </c>
-      <c r="BT40" t="n">
-        <v>1081304.064</v>
-      </c>
-      <c r="BU40" t="n">
-        <v>1024028.992</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>924819.968</v>
-      </c>
-      <c r="BW40" t="n">
-        <v>706825.9840000001</v>
-      </c>
-      <c r="BX40" t="n">
-        <v>1109176.96</v>
-      </c>
-      <c r="BY40" t="n">
-        <v>1376962.944</v>
-      </c>
-      <c r="BZ40" t="n">
-        <v>1725880.064</v>
-      </c>
-      <c r="CA40" t="n">
-        <v>1865106.944</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10361,114 +5969,6 @@
       <c r="AQ41" t="n">
         <v>38016</v>
       </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>1229</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10602,114 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>23323</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>28943</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>29751</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>33503</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>13172</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>33095</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>43041</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>73887</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>80075</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>79956</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>83940</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>176038</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>172702</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>128400</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>109722</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>81953</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>147730</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>138356.992</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>163154</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>139851.008</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>120086</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>120064</v>
-      </c>
-      <c r="BP42" t="n">
-        <v>107869</v>
-      </c>
-      <c r="BQ42" t="n">
-        <v>92208</v>
-      </c>
-      <c r="BR42" t="n">
-        <v>54898</v>
-      </c>
-      <c r="BS42" t="n">
-        <v>44928</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>10657</v>
-      </c>
-      <c r="BU42" t="n">
-        <v>8529</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>7748</v>
-      </c>
-      <c r="BW42" t="n">
-        <v>6770</v>
-      </c>
-      <c r="BX42" t="n">
-        <v>2403</v>
-      </c>
-      <c r="BY42" t="n">
-        <v>908</v>
-      </c>
-      <c r="BZ42" t="n">
-        <v>1769</v>
-      </c>
-      <c r="CA42" t="n">
-        <v>19655</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10843,114 +6235,6 @@
       <c r="AQ43" t="n">
         <v>0</v>
       </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11084,114 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11325,114 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>46504</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>45230</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>33072</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>34800</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>33645</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>32776</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>24323</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11566,114 +6634,6 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="n">
-        <v>136816</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>144476.992</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>164180</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>181267.008</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>215876</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>196524.992</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>217312</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>203036.992</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>177128</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>154966</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>132229</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>115162</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>99414</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>64831</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>46456</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>38936</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>31988</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>26021</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>20289</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>16424</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>13229</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>10712</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>9167</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>8592</v>
-      </c>
-      <c r="BP46" t="n">
-        <v>8303</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>8030</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>7774</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>7544</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>7142</v>
-      </c>
-      <c r="BU46" t="n">
-        <v>6953</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>6722</v>
-      </c>
-      <c r="BW46" t="n">
-        <v>6542</v>
-      </c>
-      <c r="BX46" t="n">
-        <v>4291</v>
-      </c>
-      <c r="BY46" t="n">
-        <v>4110</v>
-      </c>
-      <c r="BZ46" t="n">
-        <v>3928</v>
-      </c>
-      <c r="CA46" t="n">
-        <v>3748</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11807,114 +6767,6 @@
       <c r="AQ47" t="n">
         <v>52234</v>
       </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12048,114 +6900,6 @@
       <c r="AQ48" t="n">
         <v>323636.992</v>
       </c>
-      <c r="AR48" t="n">
-        <v>9096</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>8109</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>22003</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>26208</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>36316</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>25002</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>15832</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>24221</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>17605</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>20004</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>22487</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>19950</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>23167</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>21558</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>23819</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>25195</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>25763</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>26191</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>26620</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>25809</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>27258</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>25884</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>28059</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>30622</v>
-      </c>
-      <c r="BP48" t="n">
-        <v>15176</v>
-      </c>
-      <c r="BQ48" t="n">
-        <v>34689</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>37139</v>
-      </c>
-      <c r="BS48" t="n">
-        <v>37077</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>46102</v>
-      </c>
-      <c r="BU48" t="n">
-        <v>45580</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>59163</v>
-      </c>
-      <c r="BW48" t="n">
-        <v>113393</v>
-      </c>
-      <c r="BX48" t="n">
-        <v>107988</v>
-      </c>
-      <c r="BY48" t="n">
-        <v>38425</v>
-      </c>
-      <c r="BZ48" t="n">
-        <v>38630</v>
-      </c>
-      <c r="CA48" t="n">
-        <v>35935</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12289,114 +7033,6 @@
       <c r="AQ49" t="n">
         <v>0</v>
       </c>
-      <c r="AR49" t="n">
-        <v>1503</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>1378</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1013</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>990</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1036</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>1031</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>795</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>2035</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>2436</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>4288</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>4012</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>3706</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>3647</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>3567</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>2376</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>2580</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>2312</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>2525</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>5970</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>6064</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>6423</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>6063</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>4807</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>4501</v>
-      </c>
-      <c r="BP49" t="n">
-        <v>4112</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>3792</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>1595</v>
-      </c>
-      <c r="BS49" t="n">
-        <v>1672</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>1908</v>
-      </c>
-      <c r="BU49" t="n">
-        <v>1928</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>1677</v>
-      </c>
-      <c r="BW49" t="n">
-        <v>1762</v>
-      </c>
-      <c r="BX49" t="n">
-        <v>2035</v>
-      </c>
-      <c r="BY49" t="n">
-        <v>2068</v>
-      </c>
-      <c r="BZ49" t="n">
-        <v>1849</v>
-      </c>
-      <c r="CA49" t="n">
-        <v>1660</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12530,114 +7166,6 @@
       <c r="AQ50" t="n">
         <v>34403</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12771,114 +7299,6 @@
       <c r="AQ51" t="n">
         <v>0</v>
       </c>
-      <c r="AR51" t="n">
-        <v>577134.976</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>590505.024</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>582440</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>587558.976</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>586275.008</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>497568.992</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>568710.0159999999</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>573641.9840000001</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>673345.9840000001</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>666366.0159999999</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>670707.008</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>672099.008</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>675934.976</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>670796.992</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>537644.992</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>526952.992</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>590638.0159999999</v>
-      </c>
-      <c r="BI51" t="n">
-        <v>568028.992</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>549553.9840000001</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>522728.992</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>493828</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>462192</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>407088.992</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>332406.016</v>
-      </c>
-      <c r="BP51" t="n">
-        <v>270860</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>201747.008</v>
-      </c>
-      <c r="BR51" t="n">
-        <v>150020.992</v>
-      </c>
-      <c r="BS51" t="n">
-        <v>91155</v>
-      </c>
-      <c r="BT51" t="n">
-        <v>145520</v>
-      </c>
-      <c r="BU51" t="n">
-        <v>108177</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>318705.984</v>
-      </c>
-      <c r="BW51" t="n">
-        <v>399192.992</v>
-      </c>
-      <c r="BX51" t="n">
-        <v>384430.016</v>
-      </c>
-      <c r="BY51" t="n">
-        <v>288841.984</v>
-      </c>
-      <c r="BZ51" t="n">
-        <v>251320.992</v>
-      </c>
-      <c r="CA51" t="n">
-        <v>237683.008</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13012,114 +7432,6 @@
       <c r="AQ52" t="n">
         <v>-304104.992</v>
       </c>
-      <c r="AR52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>572396.032</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>661811.968</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>662384</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>769843.008</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BP52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BQ52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BR52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BS52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BT52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BU52" t="n">
-        <v>849843.008</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>1100254.976</v>
-      </c>
-      <c r="BW52" t="n">
-        <v>1100254.976</v>
-      </c>
-      <c r="BX52" t="n">
-        <v>1100254.976</v>
-      </c>
-      <c r="BY52" t="n">
-        <v>1156334.976</v>
-      </c>
-      <c r="BZ52" t="n">
-        <v>1156334.976</v>
-      </c>
-      <c r="CA52" t="n">
-        <v>1156334.976</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13253,114 +7565,6 @@
       <c r="AQ53" t="n">
         <v>-1701</v>
       </c>
-      <c r="AR53" t="n">
-        <v>5899</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>8248</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>10343</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>12331</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>14886</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>17565</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>19866</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>22223</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>23468</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>24159</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>27275</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>29217</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>31123</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>32725</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>32172</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>32323</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>33259</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>33399</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>34272</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>35155</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BP53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BQ53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BR53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BS53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BU53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BW53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BX53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BY53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="BZ53" t="n">
-        <v>35960</v>
-      </c>
-      <c r="CA53" t="n">
-        <v>35960</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13494,114 +7698,6 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="n">
-        <v>1389</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>1377</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>1364</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>1352</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>1340</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>1327</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1315</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>1290</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>1278</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>1265</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13735,114 +7831,6 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="n">
-        <v>-5958</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>-4094</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>-1663</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>-2347</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>-5859</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>-5859</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>-5859</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>-5859</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BP55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BQ55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BR55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BS55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BT55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BU55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BV55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BW55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BX55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BY55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="BZ55" t="n">
-        <v>-4283</v>
-      </c>
-      <c r="CA55" t="n">
-        <v>-4283</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13976,114 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>6642</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>12578</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>31</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>-124</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>-169</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>-53</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>-49</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>-139</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>-188</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>-254</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>-229</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>-83</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>-103</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>291</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>732</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>-126</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>-316</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>-227</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>-215</v>
-      </c>
-      <c r="BP56" t="n">
-        <v>-198</v>
-      </c>
-      <c r="BQ56" t="n">
-        <v>-200</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>-105</v>
-      </c>
-      <c r="BS56" t="n">
-        <v>-321</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>-474</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>-551</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>-470</v>
-      </c>
-      <c r="BW56" t="n">
-        <v>-394</v>
-      </c>
-      <c r="BX56" t="n">
-        <v>-539</v>
-      </c>
-      <c r="BY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ56" t="n">
-        <v>71</v>
-      </c>
-      <c r="CA56" t="n">
-        <v>113</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14217,114 +8097,6 @@
       <c r="AQ57" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" t="n">
-        <v>-3233</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>-87860</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>-108455</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>-106406</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>-115272</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>-124462</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>-123340</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>-122629</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>-120609</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>-127300</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>-259832.992</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>-270700.992</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>-288097.984</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>-310827.008</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>-330568.992</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>-358718.016</v>
-      </c>
-      <c r="BL57" t="n">
-        <v>-387566.016</v>
-      </c>
-      <c r="BM57" t="n">
-        <v>-419012</v>
-      </c>
-      <c r="BN57" t="n">
-        <v>-474204</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>-548899.008</v>
-      </c>
-      <c r="BP57" t="n">
-        <v>-610462.0159999999</v>
-      </c>
-      <c r="BQ57" t="n">
-        <v>-679572.992</v>
-      </c>
-      <c r="BR57" t="n">
-        <v>-731393.9840000001</v>
-      </c>
-      <c r="BS57" t="n">
-        <v>-790044.032</v>
-      </c>
-      <c r="BT57" t="n">
-        <v>-735526.0159999999</v>
-      </c>
-      <c r="BU57" t="n">
-        <v>-772792</v>
-      </c>
-      <c r="BV57" t="n">
-        <v>-812755.968</v>
-      </c>
-      <c r="BW57" t="n">
-        <v>-732345.024</v>
-      </c>
-      <c r="BX57" t="n">
-        <v>-746963.008</v>
-      </c>
-      <c r="BY57" t="n">
-        <v>-899169.9840000001</v>
-      </c>
-      <c r="BZ57" t="n">
-        <v>-936761.9840000001</v>
-      </c>
-      <c r="CA57" t="n">
-        <v>-950441.9840000001</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14458,114 +8230,6 @@
       <c r="AQ58" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" t="n">
-        <v>172737.024</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>161023.008</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>221968</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>130375</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>122408.968</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>86834</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>91630</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>124383</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>132416.008</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>128915</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>134880</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>166823.008</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>175909.984</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>177934</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>83234</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>201028.992</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>111748.032</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>119559</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>140067.008</v>
-      </c>
-      <c r="BK58" t="n">
-        <v>109194</v>
-      </c>
-      <c r="BL58" t="n">
-        <v>125507.992</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>105925</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>80823</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>63608</v>
-      </c>
-      <c r="BP58" t="n">
-        <v>43015.008</v>
-      </c>
-      <c r="BQ58" t="n">
-        <v>40235</v>
-      </c>
-      <c r="BR58" t="n">
-        <v>31666</v>
-      </c>
-      <c r="BS58" t="n">
-        <v>35985</v>
-      </c>
-      <c r="BT58" t="n">
-        <v>78350</v>
-      </c>
-      <c r="BU58" t="n">
-        <v>30647</v>
-      </c>
-      <c r="BV58" t="n">
-        <v>53643</v>
-      </c>
-      <c r="BW58" t="n">
-        <v>35510</v>
-      </c>
-      <c r="BX58" t="n">
-        <v>29366</v>
-      </c>
-      <c r="BY58" t="n">
-        <v>39323</v>
-      </c>
-      <c r="BZ58" t="n">
-        <v>60311</v>
-      </c>
-      <c r="CA58" t="n">
-        <v>55886</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14699,114 +8363,6 @@
       <c r="AQ59" t="n">
         <v>8261</v>
       </c>
-      <c r="AR59" t="n">
-        <v>-127963.992</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>-125992</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>-186320</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>-95431</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>-83256.008</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>-198431.008</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>-90871</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>-86994</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>-104344.984</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>-107678</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>-99992</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>-140898</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>-142300</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>-164072.992</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>-264432</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>-215811.008</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>-101306.976</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>-125254</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>-133766</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>-131513</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>-144035.008</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>-113575</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>-104944</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>-134410</v>
-      </c>
-      <c r="BP59" t="n">
-        <v>-86839</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>-111791</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>-68995</v>
-      </c>
-      <c r="BS59" t="n">
-        <v>-70680</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>-147919.984</v>
-      </c>
-      <c r="BU59" t="n">
-        <v>-37657</v>
-      </c>
-      <c r="BV59" t="n">
-        <v>-25066</v>
-      </c>
-      <c r="BW59" t="n">
-        <v>-41431</v>
-      </c>
-      <c r="BX59" t="n">
-        <v>-37162.992</v>
-      </c>
-      <c r="BY59" t="n">
-        <v>-42569</v>
-      </c>
-      <c r="BZ59" t="n">
-        <v>-29912</v>
-      </c>
-      <c r="CA59" t="n">
-        <v>-41902</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14940,114 +8496,6 @@
       <c r="AQ60" t="n">
         <v>-3997</v>
       </c>
-      <c r="AR60" t="n">
-        <v>44773</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>35031</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>35648</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>34944</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>39153</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-111597</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>759</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>37389</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>28071</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>21237</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>34888</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>25925</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>33610</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>13861</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-181198</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-14782</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>10441</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>-5695</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>6301</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-22319</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-18527</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>-7650</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>-24121</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>-70802</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>-43823.992</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>-71556</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>-37329</v>
-      </c>
-      <c r="BS60" t="n">
-        <v>-34695</v>
-      </c>
-      <c r="BT60" t="n">
-        <v>-69570</v>
-      </c>
-      <c r="BU60" t="n">
-        <v>-7010</v>
-      </c>
-      <c r="BV60" t="n">
-        <v>28577</v>
-      </c>
-      <c r="BW60" t="n">
-        <v>-5921</v>
-      </c>
-      <c r="BX60" t="n">
-        <v>-7797</v>
-      </c>
-      <c r="BY60" t="n">
-        <v>-3246</v>
-      </c>
-      <c r="BZ60" t="n">
-        <v>30399</v>
-      </c>
-      <c r="CA60" t="n">
-        <v>13984</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15181,114 +8629,6 @@
       <c r="AQ61" t="n">
         <v>4264</v>
       </c>
-      <c r="AR61" t="n">
-        <v>-26709</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>-25577</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>-29336</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>-25379</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>-32058</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>-32370</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>-34245</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>-31244</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>-39325.992</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>-31995</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>-27170</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>-30328</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>-32811</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>-28268</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>-32648</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>-23723</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>-29869</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>-23826</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>-27852</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>-21302</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>-22029</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>-21647</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>-28665</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>-24844</v>
-      </c>
-      <c r="BP61" t="n">
-        <v>-28326</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>-23684</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>-20359</v>
-      </c>
-      <c r="BS61" t="n">
-        <v>-23964</v>
-      </c>
-      <c r="BT61" t="n">
-        <v>-45116</v>
-      </c>
-      <c r="BU61" t="n">
-        <v>-26630</v>
-      </c>
-      <c r="BV61" t="n">
-        <v>-36461</v>
-      </c>
-      <c r="BW61" t="n">
-        <v>-26774</v>
-      </c>
-      <c r="BX61" t="n">
-        <v>-27316</v>
-      </c>
-      <c r="BY61" t="n">
-        <v>-22153</v>
-      </c>
-      <c r="BZ61" t="n">
-        <v>-71724</v>
-      </c>
-      <c r="CA61" t="n">
-        <v>-34820</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15422,114 +8762,6 @@
       <c r="AQ62" t="n">
         <v>0</v>
       </c>
-      <c r="AR62" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>2913</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>4347</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>3525</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>3002</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>3688</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>4770</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>3782</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>4486</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>12586</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>9894</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>5467</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>4469</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>2999</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>2717</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>2359</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>1711</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>3215</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>4432</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>5976</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>2720</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>1914</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>3147</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>1830</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>1282</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>1250</v>
-      </c>
-      <c r="BS62" t="n">
-        <v>620</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>590</v>
-      </c>
-      <c r="BU62" t="n">
-        <v>687</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>523</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>499</v>
-      </c>
-      <c r="BX62" t="n">
-        <v>1066</v>
-      </c>
-      <c r="BY62" t="n">
-        <v>850</v>
-      </c>
-      <c r="BZ62" t="n">
-        <v>960</v>
-      </c>
-      <c r="CA62" t="n">
-        <v>1180</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15663,114 +8895,6 @@
       <c r="AQ63" t="n">
         <v>-379</v>
       </c>
-      <c r="AR63" t="n">
-        <v>-19506</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-20802</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-20043</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-19983</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-21956</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-24114</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-23061</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-20504</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-24741</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-23100</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-21929</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-19329</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-21649</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-17466</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-17956</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-14231</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>-13333</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>-11475</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-11963</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-12525</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-13997</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-11016</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>-11259</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>-11332</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>-11621</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>-11532</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>-12281</v>
-      </c>
-      <c r="BS63" t="n">
-        <v>-10907</v>
-      </c>
-      <c r="BT63" t="n">
-        <v>-11133</v>
-      </c>
-      <c r="BU63" t="n">
-        <v>-9583</v>
-      </c>
-      <c r="BV63" t="n">
-        <v>-12198</v>
-      </c>
-      <c r="BW63" t="n">
-        <v>-16908</v>
-      </c>
-      <c r="BX63" t="n">
-        <v>-37116</v>
-      </c>
-      <c r="BY63" t="n">
-        <v>-10644</v>
-      </c>
-      <c r="BZ63" t="n">
-        <v>-16038</v>
-      </c>
-      <c r="CA63" t="n">
-        <v>-16075</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15904,114 +9028,6 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="n">
-        <v>-9773</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>-9539</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>-10479</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>-10067</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>-10380</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>-10168</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>-11957</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>-13498</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>-14107</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>-13549</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>-14977</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>-14834</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>-15238</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>-13495</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>-11357</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>-15004</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>-12615</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>-10942</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>-12417</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>-9767</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>-11896</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>-10602</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>-11596</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>-9870</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>-11650</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>-11193</v>
-      </c>
-      <c r="BR64" t="n">
-        <v>-12608</v>
-      </c>
-      <c r="BS64" t="n">
-        <v>-11886</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>-13282</v>
-      </c>
-      <c r="BU64" t="n">
-        <v>-10875</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>-13613</v>
-      </c>
-      <c r="BW64" t="n">
-        <v>-10879</v>
-      </c>
-      <c r="BX64" t="n">
-        <v>-9654</v>
-      </c>
-      <c r="BY64" t="n">
-        <v>-11278</v>
-      </c>
-      <c r="BZ64" t="n">
-        <v>-11535</v>
-      </c>
-      <c r="CA64" t="n">
-        <v>-13976</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16145,114 +9161,6 @@
       <c r="AQ65" t="n">
         <v>0</v>
       </c>
-      <c r="AR65" t="n">
-        <v>-2476</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>-3262</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>-1940</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>-1856</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>-3908</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>-3185</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>-1453</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>-2371</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>-2550</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>-2314</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>-3385</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>-2531</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>-2080</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>-1564</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>-1638</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>-476</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>-945</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>-1607</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>-1660</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>-1356</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>-2650</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>-843</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>-405</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>-479</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>-613</v>
-      </c>
-      <c r="BQ65" t="n">
-        <v>-537</v>
-      </c>
-      <c r="BR65" t="n">
-        <v>-427</v>
-      </c>
-      <c r="BS65" t="n">
-        <v>-514</v>
-      </c>
-      <c r="BT65" t="n">
-        <v>-543</v>
-      </c>
-      <c r="BU65" t="n">
-        <v>-290</v>
-      </c>
-      <c r="BV65" t="n">
-        <v>-657</v>
-      </c>
-      <c r="BW65" t="n">
-        <v>-741</v>
-      </c>
-      <c r="BX65" t="n">
-        <v>-405</v>
-      </c>
-      <c r="BY65" t="n">
-        <v>-2233</v>
-      </c>
-      <c r="BZ65" t="n">
-        <v>-1332</v>
-      </c>
-      <c r="CA65" t="n">
-        <v>-3453</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16386,114 +9294,6 @@
       <c r="AQ66" t="n">
         <v>-5</v>
       </c>
-      <c r="AR66" t="n">
-        <v>-3958</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>4697</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>3695</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>2276</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>1639</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>3110</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>1129</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>1316</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>1577</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>1551</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>2548</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>743</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>1041</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>3499</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>1727</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>1984</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>1776</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>1741</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>2246</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>1912</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>1209</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>2009</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>2076</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>2457</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>1964</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>1751</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>5830</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>1535</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>2392</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>2222</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>3358</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>19434</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>3825</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>6826</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>5472</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16627,114 +9427,6 @@
       <c r="AQ67" t="n">
         <v>-8</v>
       </c>
-      <c r="AR67" t="n">
-        <v>6331</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>-617</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>-2700</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>-1093</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-1717</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>-1072</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>-2533</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>-1870</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>-2765</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>-1975</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>-2897</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>-3119</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>-4215</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>-2178</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>-4511</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>-1377</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>-6994</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>-4532</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>-4669</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>-2685</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>-3562</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>-2030</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>-5909</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>-5385</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>-3881</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>-3994</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>-3998</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>-1306</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>-21427</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>-996</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>-10270</v>
-      </c>
-      <c r="BW67" t="n">
-        <v>-2899</v>
-      </c>
-      <c r="BX67" t="n">
-        <v>-2707</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>-946</v>
-      </c>
-      <c r="BZ67" t="n">
-        <v>-4925</v>
-      </c>
-      <c r="CA67" t="n">
-        <v>-2691</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16868,114 +9560,6 @@
       <c r="AQ68" t="n">
         <v>-11503</v>
       </c>
-      <c r="AR68" t="n">
-        <v>1042</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>1033</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>132</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>997</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>739</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>57</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-58</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>913</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>-522</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>2906</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>884</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>-1152</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>3863</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>-1533</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>-1912</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>2664</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>-117</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>1278</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>-2604</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>-1313</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>2891</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>-1885</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>-3486</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>-3382</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>-4355</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>539</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>1875</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>-1506</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>-1713</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>-7594</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>-2468</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>796</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>2066</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>-1727</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>-45680</v>
-      </c>
-      <c r="CA68" t="n">
-        <v>-5277</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17109,114 +9693,6 @@
       <c r="AQ69" t="n">
         <v>3335</v>
       </c>
-      <c r="AR69" t="n">
-        <v>18064</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>9454</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>6312</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>9565</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>7095</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>-143967.008</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>-33486</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>6145</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>-11255</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>-10758</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>7718</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>-4403</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>799</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>-14407</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>-213846</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>-38505</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>-19427.984</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>-29521</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>-21551</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>-43621</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>-40555.992</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>-29297</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>-52786</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>-95646</v>
-      </c>
-      <c r="BP69" t="n">
-        <v>-72150.008</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>-95240</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>-57688</v>
-      </c>
-      <c r="BS69" t="n">
-        <v>-58659</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>-114685.992</v>
-      </c>
-      <c r="BU69" t="n">
-        <v>-33640</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>-7884</v>
-      </c>
-      <c r="BW69" t="n">
-        <v>-32695</v>
-      </c>
-      <c r="BX69" t="n">
-        <v>-35113</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>-25399</v>
-      </c>
-      <c r="BZ69" t="n">
-        <v>-41325</v>
-      </c>
-      <c r="CA69" t="n">
-        <v>-20836</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17350,114 +9826,6 @@
       <c r="AQ70" t="n">
         <v>-14838</v>
       </c>
-      <c r="AR70" t="n">
-        <v>-2601</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>2884</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-1153</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-1230</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-1616</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-669</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>752</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>435</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-1205</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-1643</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-1223</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>9214</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>1241</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-981</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-5034</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-1370</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>-3226</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>-1809</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-344</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-1020</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>-4755</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>-840</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>-2220</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>-2727</v>
-      </c>
-      <c r="BP70" t="n">
-        <v>-1300</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>-2302</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>-8332</v>
-      </c>
-      <c r="BS70" t="n">
-        <v>-6993</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>149596.992</v>
-      </c>
-      <c r="BU70" t="n">
-        <v>-1594</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>-9595</v>
-      </c>
-      <c r="BW70" t="n">
-        <v>-3006</v>
-      </c>
-      <c r="BX70" t="n">
-        <v>99620</v>
-      </c>
-      <c r="BY70" t="n">
-        <v>99</v>
-      </c>
-      <c r="BZ70" t="n">
-        <v>9513</v>
-      </c>
-      <c r="CA70" t="n">
-        <v>-94</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17591,114 +9959,6 @@
       <c r="AQ71" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" t="n">
-        <v>-1430</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>3992</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>-3992</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>58</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>2214</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>652</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>706</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>58</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>9555</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>1593</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>161</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>354</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>1981</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>216</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>731</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>106</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>873</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>534</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>1803</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>1201</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>548</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>1186</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>1356</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>151784</v>
-      </c>
-      <c r="BU71" t="n">
-        <v>-1930</v>
-      </c>
-      <c r="BV71" t="n">
-        <v>697</v>
-      </c>
-      <c r="BW71" t="n">
-        <v>550</v>
-      </c>
-      <c r="BX71" t="n">
-        <v>102082</v>
-      </c>
-      <c r="BY71" t="n">
-        <v>171</v>
-      </c>
-      <c r="BZ71" t="n">
-        <v>9538</v>
-      </c>
-      <c r="CA71" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17832,114 +10092,6 @@
       <c r="AQ72" t="n">
         <v>0</v>
       </c>
-      <c r="AR72" t="n">
-        <v>-1171</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>-1108</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>-1153</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>-1230</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>2376</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>-727</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>-1462</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>-217</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>-1911</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>-1701</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>-1251</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>-341</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>-352</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>-1142</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>-5388</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>-3351</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>-3442</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>-2540</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>-450</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>-1893</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>-5289</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>-840</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>-2220</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>-4530</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>-2501</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>-2850</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>-9518</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>-8349</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>-2187</v>
-      </c>
-      <c r="BU72" t="n">
-        <v>336</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>-10292</v>
-      </c>
-      <c r="BW72" t="n">
-        <v>-3556</v>
-      </c>
-      <c r="BX72" t="n">
-        <v>-2462</v>
-      </c>
-      <c r="BY72" t="n">
-        <v>-72</v>
-      </c>
-      <c r="BZ72" t="n">
-        <v>-25</v>
-      </c>
-      <c r="CA72" t="n">
-        <v>-185</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18073,114 +10225,6 @@
       <c r="AQ73" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" t="n">
-        <v>15463</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>12338</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>5159</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>8335</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>5479</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>-144636</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>-32734</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>6580</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>-12460</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>-12401</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>6495</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>4811</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>2040</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>-15388</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>-218880</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>-39875</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>-22653.992</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>-31330</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>-21895</v>
-      </c>
-      <c r="BK73" t="n">
-        <v>-44641</v>
-      </c>
-      <c r="BL73" t="n">
-        <v>-45310.992</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>-30137</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>-55006</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>-98373</v>
-      </c>
-      <c r="BP73" t="n">
-        <v>-73450</v>
-      </c>
-      <c r="BQ73" t="n">
-        <v>-97542</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>-66020</v>
-      </c>
-      <c r="BS73" t="n">
-        <v>-65652</v>
-      </c>
-      <c r="BT73" t="n">
-        <v>34910.992</v>
-      </c>
-      <c r="BU73" t="n">
-        <v>-35234</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>-17479</v>
-      </c>
-      <c r="BW73" t="n">
-        <v>-35701</v>
-      </c>
-      <c r="BX73" t="n">
-        <v>64507</v>
-      </c>
-      <c r="BY73" t="n">
-        <v>-25300</v>
-      </c>
-      <c r="BZ73" t="n">
-        <v>-31812</v>
-      </c>
-      <c r="CA73" t="n">
-        <v>-20930</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18314,114 +10358,6 @@
       <c r="AQ74" t="n">
         <v>-7631</v>
       </c>
-      <c r="AR74" t="n">
-        <v>930</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1169</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-10551</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>-3072</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>-7208</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>10783</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>-1989</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>2469</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>-111</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>2400</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>-2723</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>4838</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>1725</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>1296</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>-3957</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>3040</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>-139</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>-2829</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>1862</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>2379</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>856</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>904</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>-3537</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>382</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>-13768</v>
-      </c>
-      <c r="BY74" t="n">
-        <v>13969</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>2340</v>
-      </c>
-      <c r="CA74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18555,114 +10491,6 @@
       <c r="AQ75" t="n">
         <v>0</v>
       </c>
-      <c r="AR75" t="n">
-        <v>-2486</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>-6332</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>10061</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>808</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>7219</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>47866</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>13184</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-1176</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>1748</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>4979</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-6084</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>2375</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-2668</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>8633</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>83754</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>32257</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>2675</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>9404</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>5833</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>15497</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>14945</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>22844</v>
-      </c>
-      <c r="BP75" t="n">
-        <v>11903</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>28523</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>15080</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>7002</v>
-      </c>
-      <c r="BT75" t="n">
-        <v>23858</v>
-      </c>
-      <c r="BU75" t="n">
-        <v>-2345</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>-21715</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>116344</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>-64766</v>
-      </c>
-      <c r="BY75" t="n">
-        <v>-139372.992</v>
-      </c>
-      <c r="BZ75" t="n">
-        <v>-8120</v>
-      </c>
-      <c r="CA75" t="n">
-        <v>7250</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18796,114 +10624,6 @@
       <c r="AQ76" t="n">
         <v>0</v>
       </c>
-      <c r="AR76" t="n">
-        <v>-3585</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>-2130</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-2251</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-2940</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>-1830</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>-5398</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>-2694</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>-1379</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>-1709</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>-2296</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-1701</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>-2740</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>-2191</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>-1661</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>-810</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>-187</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>-457</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>-1435</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>-850</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>-867</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>-861</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>-1309</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>-186</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>-22</v>
-      </c>
-      <c r="BP76" t="n">
-        <v>-920</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>-92</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>-881</v>
-      </c>
-      <c r="BS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT76" t="n">
-        <v>-714</v>
-      </c>
-      <c r="BU76" t="n">
-        <v>-69</v>
-      </c>
-      <c r="BV76" t="n">
-        <v>-770</v>
-      </c>
-      <c r="BW76" t="n">
-        <v>-232</v>
-      </c>
-      <c r="BX76" t="n">
-        <v>-591</v>
-      </c>
-      <c r="BY76" t="n">
-        <v>-1503</v>
-      </c>
-      <c r="BZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19037,114 +10757,6 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19278,42 +10890,6 @@
       <c r="AQ78" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="inlineStr"/>
-      <c r="BE78" t="inlineStr"/>
-      <c r="BF78" t="inlineStr"/>
-      <c r="BG78" t="inlineStr"/>
-      <c r="BH78" t="inlineStr"/>
-      <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
-      <c r="BN78" t="inlineStr"/>
-      <c r="BO78" t="inlineStr"/>
-      <c r="BP78" t="inlineStr"/>
-      <c r="BQ78" t="inlineStr"/>
-      <c r="BR78" t="inlineStr"/>
-      <c r="BS78" t="inlineStr"/>
-      <c r="BT78" t="inlineStr"/>
-      <c r="BU78" t="inlineStr"/>
-      <c r="BV78" t="inlineStr"/>
-      <c r="BW78" t="inlineStr"/>
-      <c r="BX78" t="inlineStr"/>
-      <c r="BY78" t="inlineStr"/>
-      <c r="BZ78" t="inlineStr"/>
-      <c r="CA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19447,114 +11023,6 @@
       <c r="AQ79" t="n">
         <v>3593</v>
       </c>
-      <c r="AR79" t="n">
-        <v>10322</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>5045</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2418</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>3131</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>3660</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>-91385</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>-20607</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>2036</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>-9952</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>-9829</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>1110</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>1723</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>2019</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>-6691</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>-134640</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>-11762</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>-17395.992</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>-23500</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>-19741</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>-28149</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>-28848</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>-31446</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>-55192</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>-74695</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>-61563</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>-69111</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>-51821</v>
-      </c>
-      <c r="BS79" t="n">
-        <v>-58650</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>54518</v>
-      </c>
-      <c r="BU79" t="n">
-        <v>-37266</v>
-      </c>
-      <c r="BV79" t="n">
-        <v>-39964</v>
-      </c>
-      <c r="BW79" t="n">
-        <v>80411</v>
-      </c>
-      <c r="BX79" t="n">
-        <v>-14618</v>
-      </c>
-      <c r="BY79" t="n">
-        <v>-152207.008</v>
-      </c>
-      <c r="BZ79" t="n">
-        <v>-37592</v>
-      </c>
-      <c r="CA79" t="n">
-        <v>-13680</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19688,42 +11156,6 @@
       <c r="AQ80" t="n">
         <v>-4038</v>
       </c>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
-      <c r="AU80" t="inlineStr"/>
-      <c r="AV80" t="inlineStr"/>
-      <c r="AW80" t="inlineStr"/>
-      <c r="AX80" t="inlineStr"/>
-      <c r="AY80" t="inlineStr"/>
-      <c r="AZ80" t="inlineStr"/>
-      <c r="BA80" t="inlineStr"/>
-      <c r="BB80" t="inlineStr"/>
-      <c r="BC80" t="inlineStr"/>
-      <c r="BD80" t="inlineStr"/>
-      <c r="BE80" t="inlineStr"/>
-      <c r="BF80" t="inlineStr"/>
-      <c r="BG80" t="inlineStr"/>
-      <c r="BH80" t="inlineStr"/>
-      <c r="BI80" t="inlineStr"/>
-      <c r="BJ80" t="inlineStr"/>
-      <c r="BK80" t="inlineStr"/>
-      <c r="BL80" t="inlineStr"/>
-      <c r="BM80" t="inlineStr"/>
-      <c r="BN80" t="inlineStr"/>
-      <c r="BO80" t="inlineStr"/>
-      <c r="BP80" t="inlineStr"/>
-      <c r="BQ80" t="inlineStr"/>
-      <c r="BR80" t="inlineStr"/>
-      <c r="BS80" t="inlineStr"/>
-      <c r="BT80" t="inlineStr"/>
-      <c r="BU80" t="inlineStr"/>
-      <c r="BV80" t="inlineStr"/>
-      <c r="BW80" t="inlineStr"/>
-      <c r="BX80" t="inlineStr"/>
-      <c r="BY80" t="inlineStr"/>
-      <c r="BZ80" t="inlineStr"/>
-      <c r="CA80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
